--- a/data/trans_dic/P3A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,62</t>
+          <t>2,79; 6,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,87</t>
+          <t>1,15; 4,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 11,17</t>
+          <t>5,19; 11,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39,4; 55,57</t>
+          <t>39,93; 55,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,49; 15,55</t>
+          <t>9,44; 15,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,79; 18,81</t>
+          <t>11,97; 18,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,64; 24,92</t>
+          <t>16,66; 24,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>59,58; 74,38</t>
+          <t>59,71; 73,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,52; 10,08</t>
+          <t>6,62; 10,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,83; 10,44</t>
+          <t>6,56; 10,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,46; 16,33</t>
+          <t>11,29; 16,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>51,74; 63,2</t>
+          <t>51,58; 62,89</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,35; 10,72</t>
+          <t>6,29; 10,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,81; 13,72</t>
+          <t>8,94; 13,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,49; 15,98</t>
+          <t>10,18; 15,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59,95; 71,98</t>
+          <t>59,91; 72,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,45; 49,53</t>
+          <t>41,41; 49,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,75; 52,19</t>
+          <t>43,44; 52,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>42,81; 51,47</t>
+          <t>43,37; 51,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>89,4; 95,37</t>
+          <t>89,9; 95,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,87; 27,91</t>
+          <t>22,79; 27,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,96; 31,16</t>
+          <t>25,91; 31,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,87; 32,09</t>
+          <t>27,05; 32,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>76,77; 83,53</t>
+          <t>77,4; 83,86</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 10,99</t>
+          <t>6,41; 11,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,62; 11,0</t>
+          <t>6,49; 11,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,79; 18,82</t>
+          <t>12,94; 18,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>72,87; 80,74</t>
+          <t>72,76; 80,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>60,91; 67,92</t>
+          <t>60,6; 68,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,07; 70,4</t>
+          <t>63,05; 70,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>51,21; 58,53</t>
+          <t>50,87; 58,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>95,93; 98,16</t>
+          <t>95,79; 98,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>34,81; 40,18</t>
+          <t>35,04; 40,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>35,77; 41,12</t>
+          <t>35,93; 41,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,35; 37,81</t>
+          <t>32,44; 38,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>85,47; 89,32</t>
+          <t>85,2; 89,28</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,11; 11,23</t>
+          <t>5,99; 11,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,87; 14,66</t>
+          <t>8,9; 14,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,9; 20,2</t>
+          <t>13,83; 19,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>49,39; 73,38</t>
+          <t>52,5; 73,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>67,75; 75,48</t>
+          <t>68,02; 75,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,65; 74,55</t>
+          <t>66,93; 74,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>61,76; 69,3</t>
+          <t>61,45; 69,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>96,1; 98,09</t>
+          <t>96,23; 98,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,87; 43,14</t>
+          <t>37,05; 43,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>38,15; 44,01</t>
+          <t>37,99; 43,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>38,45; 44,27</t>
+          <t>38,36; 44,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>72,32; 86,38</t>
+          <t>72,15; 86,11</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,41; 10,9</t>
+          <t>5,7; 11,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,78; 11,36</t>
+          <t>5,84; 11,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,6; 18,16</t>
+          <t>11,43; 18,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>65,12; 72,25</t>
+          <t>64,8; 72,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>67,76; 76,3</t>
+          <t>67,45; 76,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,22; 74,75</t>
+          <t>64,88; 73,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>67,92; 76,25</t>
+          <t>68,05; 76,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95,63; 97,92</t>
+          <t>95,67; 97,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>37,48; 44,17</t>
+          <t>37,36; 44,18</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>36,43; 43,52</t>
+          <t>36,27; 43,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40,23; 47,15</t>
+          <t>40,74; 47,19</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>80,53; 84,51</t>
+          <t>80,5; 84,72</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,12; 16,07</t>
+          <t>10,34; 16,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,98; 16,01</t>
+          <t>10,05; 16,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,3; 19,17</t>
+          <t>13,2; 18,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>53,52; 59,39</t>
+          <t>53,32; 59,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>52,31; 60,27</t>
+          <t>52,26; 60,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,13; 54,47</t>
+          <t>47,36; 54,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>55,73; 64,03</t>
+          <t>55,73; 63,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>83,42; 89,86</t>
+          <t>83,17; 90,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>35,17; 40,76</t>
+          <t>35,14; 40,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31,94; 37,32</t>
+          <t>31,77; 37,37</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>38,17; 43,61</t>
+          <t>38,07; 43,66</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>71,47; 79,08</t>
+          <t>71,53; 79,79</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,46; 9,5</t>
+          <t>7,45; 9,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,42; 10,41</t>
+          <t>8,32; 10,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,13; 15,71</t>
+          <t>13,12; 15,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>61,28; 66,7</t>
+          <t>60,48; 66,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>52,43; 55,94</t>
+          <t>52,28; 55,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>53,34; 56,68</t>
+          <t>53,39; 56,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>53,58; 57,14</t>
+          <t>53,72; 57,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>89,68; 92,03</t>
+          <t>89,69; 92,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>30,53; 32,79</t>
+          <t>30,48; 32,88</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>31,51; 33,74</t>
+          <t>31,57; 33,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>34,09; 36,35</t>
+          <t>34,04; 36,38</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>76,46; 79,79</t>
+          <t>76,26; 79,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P3A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,92</t>
+          <t>2,76; 6,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,06</t>
+          <t>1,15; 3,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,19; 11,14</t>
+          <t>5,27; 11,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,44; 15,37</t>
+          <t>9,43; 15,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,97; 18,87</t>
+          <t>11,81; 19,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,66; 24,73</t>
+          <t>16,64; 24,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,62; 10,28</t>
+          <t>6,5; 10,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,56; 10,28</t>
+          <t>6,68; 10,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,29; 16,34</t>
+          <t>11,81; 16,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,29; 10,69</t>
+          <t>6,36; 10,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,94; 13,82</t>
+          <t>8,9; 14,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,18; 15,9</t>
+          <t>10,46; 16,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,41; 49,45</t>
+          <t>41,54; 49,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,44; 52,01</t>
+          <t>43,23; 51,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,37; 51,43</t>
+          <t>43,1; 51,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,79; 27,71</t>
+          <t>22,78; 27,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,91; 31,19</t>
+          <t>25,76; 30,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,05; 32,31</t>
+          <t>27,07; 32,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,41; 11,16</t>
+          <t>6,43; 11,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 11,01</t>
+          <t>6,5; 10,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,94; 18,7</t>
+          <t>12,87; 18,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>60,6; 68,27</t>
+          <t>60,67; 68,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,05; 70,36</t>
+          <t>63,11; 70,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,87; 58,46</t>
+          <t>51,02; 58,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>35,04; 40,49</t>
+          <t>34,83; 40,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>35,93; 41,13</t>
+          <t>35,71; 40,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,44; 38,28</t>
+          <t>32,59; 37,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,99; 11,34</t>
+          <t>6,28; 11,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,9; 14,38</t>
+          <t>8,84; 14,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,83; 19,9</t>
+          <t>13,68; 20,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>68,02; 75,89</t>
+          <t>67,61; 75,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,93; 74,63</t>
+          <t>66,5; 74,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>61,45; 69,19</t>
+          <t>62,05; 69,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>37,05; 43,02</t>
+          <t>36,92; 42,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,99; 43,98</t>
+          <t>38,11; 44,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>38,36; 44,22</t>
+          <t>38,42; 43,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 11,05</t>
+          <t>5,73; 11,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,84; 11,41</t>
+          <t>5,81; 11,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,43; 18,11</t>
+          <t>11,51; 18,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>67,45; 76,49</t>
+          <t>67,44; 76,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,88; 73,73</t>
+          <t>65,26; 74,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>68,05; 76,38</t>
+          <t>67,92; 76,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>37,36; 44,18</t>
+          <t>37,16; 43,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>36,27; 43,01</t>
+          <t>36,73; 43,48</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40,74; 47,19</t>
+          <t>40,7; 47,6</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,34; 16,49</t>
+          <t>10,13; 16,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,05; 16,26</t>
+          <t>9,92; 15,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,2; 18,88</t>
+          <t>13,25; 19,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>52,26; 60,49</t>
+          <t>52,57; 60,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,36; 54,7</t>
+          <t>47,11; 54,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>55,73; 63,28</t>
+          <t>55,42; 63,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>35,14; 40,83</t>
+          <t>35,03; 40,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31,77; 37,37</t>
+          <t>31,88; 37,19</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>38,07; 43,66</t>
+          <t>37,79; 43,54</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,45; 9,46</t>
+          <t>7,46; 9,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,32; 10,31</t>
+          <t>8,25; 10,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,12; 15,67</t>
+          <t>13,18; 15,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>52,28; 55,73</t>
+          <t>52,27; 55,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>53,72; 57,06</t>
+          <t>53,6; 57,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>30,48; 32,88</t>
+          <t>30,46; 32,77</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>31,57; 33,86</t>
+          <t>31,54; 33,77</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>34,04; 36,38</t>
+          <t>34,04; 36,52</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P3A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tareas del hogar realizadas por el/la entrevistado/a</t>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>47,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>67,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>57,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,62</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,89</t>
+          <t>0; 0,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 11,29</t>
+          <t>0; 0,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39,93; 55,98</t>
+          <t>0; 1,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,43; 15,49</t>
+          <t>0; 0,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,81; 19,03</t>
+          <t>0; 0,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,64; 24,62</t>
+          <t>0; 0,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>59,71; 73,94</t>
+          <t>0; 0,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 10,22</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,68; 10,51</t>
+          <t>0; 0,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,81; 16,75</t>
+          <t>0; 0,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>51,58; 62,89</t>
+          <t>0; 0,51</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>66,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>92,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>29,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>80,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,36; 10,51</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,9; 14,11</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,46; 16,09</t>
+          <t>0; 0,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59,91; 72,03</t>
+          <t>0; 0,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,54; 49,62</t>
+          <t>0; 0,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,23; 51,82</t>
+          <t>0; 0,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,1; 51,57</t>
+          <t>0; 0,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>89,9; 95,31</t>
+          <t>0; 0,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,78; 27,98</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,76; 30,96</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,07; 32,55</t>
+          <t>0; 0,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>77,4; 83,86</t>
+          <t>0; 0,25</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>76,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>64,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>66,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>54,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>38,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>35,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>87,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,43; 11,16</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 10,86</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,87; 18,45</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>72,76; 80,04</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>60,67; 68,05</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,11; 70,37</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>51,02; 58,83</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>95,79; 98,23</t>
+          <t>0; 0,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>34,83; 40,31</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>35,71; 40,9</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,59; 37,78</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>85,2; 89,28</t>
+          <t>0; 0,14</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>67,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>71,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>70,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>65,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>97,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>40,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>41,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>41,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>82,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 11,24</t>
+          <t>0; 0,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,84; 14,46</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,68; 20,29</t>
+          <t>0; 0,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>52,5; 73,55</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>67,61; 75,7</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,5; 74,3</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,05; 69,27</t>
+          <t>0; 0,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>96,23; 98,15</t>
+          <t>0; 0,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,92; 42,99</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>38,11; 44,09</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>38,42; 43,92</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>72,15; 86,11</t>
+          <t>0; 0,11</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>68,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>72,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>69,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>72,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>96,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>39,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>82,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,73; 11,21</t>
+          <t>0; 0,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,81; 11,3</t>
+          <t>0; 0,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,51; 18,1</t>
+          <t>0; 0,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>64,8; 72,23</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>67,44; 76,31</t>
+          <t>0; 0,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,26; 74,21</t>
+          <t>0; 0,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>67,92; 76,74</t>
+          <t>0; 0,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95,67; 97,94</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>37,16; 43,95</t>
+          <t>0; 0,24</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>36,73; 43,48</t>
+          <t>0; 0,24</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40,7; 47,6</t>
+          <t>0; 0,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>80,5; 84,72</t>
+          <t>0; 0,12</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>56,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>56,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>50,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>59,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>85,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>37,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>40,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>73,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,13; 16,39</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,92; 15,98</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,25; 19,04</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>53,32; 59,3</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>52,57; 60,09</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,11; 54,62</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>55,42; 63,33</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>83,17; 90,13</t>
+          <t>0; 0,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>35,03; 40,49</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31,88; 37,19</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>37,79; 43,54</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>71,53; 79,79</t>
+          <t>0; 0,07</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>64,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>54,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>55,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>55,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>90,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>31,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>78,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,46; 9,49</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,25; 10,45</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,18; 15,7</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>60,48; 66,52</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>52,27; 55,84</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>53,39; 56,75</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>53,6; 57,01</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>89,69; 92,04</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>30,46; 32,77</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>31,54; 33,77</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>34,04; 36,52</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>76,26; 79,87</t>
+          <t>0; 0,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P3A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1206,7 +1206,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0; 0,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>0; 0,59</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,34</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,52</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,56</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,54</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,23</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,28</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
           <t>0; 0,31</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="M15" s="2" t="inlineStr">
         <is>
           <t>0; 0,28</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,11</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0; 0,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0; 0,87</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,86</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,64</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,42</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,66</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,55</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,64</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,22</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,38</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,34</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,32</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>0; 0,04</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
         <is>
           <t>0; 0,02</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P3A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1897</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1951</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2045</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4435</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1832</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1876</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2889</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1867</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1956</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1962</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3603</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1975</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1996</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2683</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2027</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2048</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1866</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2128</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2017</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2011</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1932</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2352</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1998</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2008</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2009</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1883</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2010</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1907</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1339</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2028</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1959</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1553</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2055</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2149</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2126</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2560</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2191</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2067</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1199</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2013</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2172</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2098</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1701</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1889</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2092</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2159</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1623</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1953</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2112</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2198</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1049</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1924</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2106</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2182</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1279</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1847</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2101</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1239</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1411</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1808</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2033</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2011</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1342</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1822</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2150</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1629</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1183</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2202</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2127</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2543</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0; 927</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2141</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2090</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1016</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2017</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2039</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1328</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2062</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2028</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1576</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>